--- a/Fichiers equipe/revue_code_khalil.xlsx
+++ b/Fichiers equipe/revue_code_khalil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalil\Desktop\BdeB\CETTE SESSION\Cours_maintenance\TP1\5GP-Travail_pratique_1\Fichiers equipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrie\OneDrive - Collège de Bois-de-Boulogne\genie logiciel\Session 5 - Automne 2023\Maintenance logiciel\5GP-Travail_pratique_1\Fichiers equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A1E1D-057A-498D-A410-4E7495399845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E212C-0A56-4BCE-A602-85D04A459844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12012" yWindow="0" windowWidth="11028" windowHeight="12336" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -260,6 +266,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,24 +581,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="108.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="108.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -602,7 +609,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -616,7 +623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -630,7 +637,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -644,20 +651,20 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -688,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -708,8 +715,9 @@
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -729,8 +737,9 @@
       <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -750,8 +759,9 @@
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -771,8 +781,9 @@
       <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -792,8 +803,9 @@
       <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -834,8 +847,9 @@
       <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -855,8 +869,9 @@
       <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -876,8 +891,9 @@
       <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -897,8 +913,9 @@
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -918,6 +935,7 @@
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="H22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Fichiers equipe/revue_code_khalil.xlsx
+++ b/Fichiers equipe/revue_code_khalil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrie\OneDrive - Collège de Bois-de-Boulogne\genie logiciel\Session 5 - Automne 2023\Maintenance logiciel\5GP-Travail_pratique_1\Fichiers equipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalil\Desktop\BdeB\CETTE SESSION\Cours_maintenance\TP1\5GP-Travail_pratique_1\Fichiers equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E212C-0A56-4BCE-A602-85D04A459844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE43EA-499E-4744-AB40-68B3025AC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>FICHE DE REVUE DE CODE</t>
   </si>
@@ -148,13 +148,57 @@
   </si>
   <si>
     <t xml:space="preserve">"musique_questions_controles" est defini après qu'il soit appelé </t>
+  </si>
+  <si>
+    <r>
+      <t>indicateurs =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[gui.Image(data=indicateur_vide_base64(), key=f'INDICATEUR-{i}', pad=(4, 10)) for i in range(NB_QUESTIONS)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ des ajouts de plus qui font rien </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +230,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -213,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,11 +293,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -263,10 +342,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,35 +670,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="108.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="108.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -637,7 +726,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -651,20 +740,20 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -695,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -715,9 +804,9 @@
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -737,9 +826,9 @@
       <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -759,9 +848,9 @@
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -781,9 +870,9 @@
       <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -803,9 +892,9 @@
       <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -825,9 +914,9 @@
       <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -847,9 +936,9 @@
       <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -869,9 +958,9 @@
       <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -891,9 +980,9 @@
       <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -913,9 +1002,9 @@
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -935,7 +1024,29 @@
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13">
+        <v>77</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Fichiers equipe/revue_code_khalil.xlsx
+++ b/Fichiers equipe/revue_code_khalil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalil\Desktop\BdeB\CETTE SESSION\Cours_maintenance\TP1\5GP-Travail_pratique_1\Fichiers equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE43EA-499E-4744-AB40-68B3025AC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95790C14-26F2-469E-BA39-B9DF24359CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>FICHE DE REVUE DE CODE</t>
   </si>
@@ -192,6 +192,12 @@
       </rPr>
       <t xml:space="preserve">/ des ajouts de plus qui font rien </t>
     </r>
+  </si>
+  <si>
+    <t>erreur + amélioration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicateur rouge affiche sur chaque mauvaise réponse </t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -315,11 +321,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,9 +369,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +377,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,17 +702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="108.109375" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
@@ -688,15 +720,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -1027,26 +1059,46 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>12</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>77</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>13</v>
+      </c>
+      <c r="B24" s="17">
+        <v>218</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
